--- a/biology/Zoologie/Bipes_biporus/Bipes_biporus.xlsx
+++ b/biology/Zoologie/Bipes_biporus/Bipes_biporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bipes biporus est une espèce d'amphisbènes de la famille des Bipedidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipes biporus est une espèce d'amphisbènes de la famille des Bipedidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède, caractéristique du genre Bipes, des membres supérieurs, mais pas de membres inférieurs.
 De couleur rose, il mesure entre 15 et 23 cm, et se nourrit d'insectes et de vers vivant dans la terre.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1894 : On the genera and species of Euchirotidae. The American naturalist, vol. 28, p. 436-437 (texte intégral).</t>
         </is>
